--- a/allusers.xlsx
+++ b/allusers.xlsx
@@ -178,7 +178,7 @@
     <t>2019-05-10</t>
   </si>
   <si>
-    <t>2019-07-24 00:00:00</t>
+    <t>2019-07-26 00:00:00</t>
   </si>
 </sst>
 </file>

--- a/allusers.xlsx
+++ b/allusers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -103,33 +103,6 @@
     <t>2019-03-17</t>
   </si>
   <si>
-    <t>Мулькин</t>
-  </si>
-  <si>
-    <t>Певел</t>
-  </si>
-  <si>
-    <t>Сергеевич</t>
-  </si>
-  <si>
-    <t>ЮрФУ</t>
-  </si>
-  <si>
-    <t>patro1@yandex.ru</t>
-  </si>
-  <si>
-    <t>223-322-223</t>
-  </si>
-  <si>
-    <t>11.11.2011</t>
-  </si>
-  <si>
-    <t>mul</t>
-  </si>
-  <si>
-    <t>2019-03-24</t>
-  </si>
-  <si>
     <t>Мрак</t>
   </si>
   <si>
@@ -157,28 +130,7 @@
     <t>2019-04-28</t>
   </si>
   <si>
-    <t>Холостов</t>
-  </si>
-  <si>
-    <t>Петрович</t>
-  </si>
-  <si>
-    <t>ФП</t>
-  </si>
-  <si>
-    <t>4585</t>
-  </si>
-  <si>
-    <t>25.11.1962</t>
-  </si>
-  <si>
-    <t>uup</t>
-  </si>
-  <si>
-    <t>2019-05-10</t>
-  </si>
-  <si>
-    <t>2019-07-26 00:00:00</t>
+    <t>2019-08-03 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -510,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,7 +575,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -657,78 +609,8 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/allusers.xlsx
+++ b/allusers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="420">
   <si>
     <t>id</t>
   </si>
@@ -55,82 +55,1225 @@
     <t>Курс</t>
   </si>
   <si>
-    <t>Суханов</t>
-  </si>
-  <si>
-    <t>Игорь</t>
-  </si>
-  <si>
-    <t>Константинович</t>
-  </si>
-  <si>
-    <t>you@me.they</t>
-  </si>
-  <si>
-    <t>456542145</t>
-  </si>
-  <si>
-    <t>21.11.2001</t>
+    <t>Сова</t>
+  </si>
+  <si>
+    <t>Тать</t>
+  </si>
+  <si>
+    <t>Влировна</t>
+  </si>
+  <si>
+    <t>Прикладная экономика</t>
+  </si>
+  <si>
+    <t>tanva@mail.ru</t>
+  </si>
+  <si>
+    <t>+7(918876</t>
+  </si>
+  <si>
+    <t>1997-12-31</t>
+  </si>
+  <si>
+    <t>tsoldatova</t>
+  </si>
+  <si>
+    <t>ttttTTTT45888</t>
+  </si>
+  <si>
+    <t>2019-10-30</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>Магистратура 1</t>
+  </si>
+  <si>
+    <t>Кулакова</t>
+  </si>
+  <si>
+    <t>Дуня</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Юриспруденция</t>
+  </si>
+  <si>
+    <t>311@yandex.ru</t>
+  </si>
+  <si>
+    <t>8953а</t>
+  </si>
+  <si>
+    <t>2000-11-01</t>
+  </si>
+  <si>
+    <t>kupash311а</t>
+  </si>
+  <si>
+    <t>Rtyuehe17519а</t>
+  </si>
+  <si>
+    <t>2019-11-07</t>
+  </si>
+  <si>
+    <t>Бакалавриат 4</t>
+  </si>
+  <si>
+    <t>Майко</t>
+  </si>
+  <si>
+    <t>Олеся</t>
+  </si>
+  <si>
+    <t>Олеговна</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>nko@edu.ru</t>
+  </si>
+  <si>
+    <t>+79106</t>
+  </si>
+  <si>
+    <t>1999-05-20</t>
+  </si>
+  <si>
+    <t>omaystrenko</t>
+  </si>
+  <si>
+    <t>Lesya2005</t>
+  </si>
+  <si>
+    <t>2019-11-11</t>
+  </si>
+  <si>
+    <t>Бакалавриат 3</t>
+  </si>
+  <si>
+    <t>Ант</t>
+  </si>
+  <si>
+    <t>Лидия</t>
+  </si>
+  <si>
+    <t>Андреевна</t>
+  </si>
+  <si>
+    <t>Античность</t>
+  </si>
+  <si>
+    <t>lant@hse.ru</t>
+  </si>
+  <si>
+    <t>+7-13</t>
+  </si>
+  <si>
+    <t>1993-02-13</t>
+  </si>
+  <si>
+    <t>lantonova</t>
+  </si>
+  <si>
+    <t>passWord45</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>Магистратура 2</t>
+  </si>
+  <si>
+    <t>Бач</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Бизнес-информатика</t>
+  </si>
+  <si>
+    <t>d88@yandex.ru</t>
+  </si>
+  <si>
+    <t>8896</t>
+  </si>
+  <si>
+    <t>1999-02-14</t>
+  </si>
+  <si>
+    <t>d83b38</t>
+  </si>
+  <si>
+    <t>Rasta1bob196555</t>
+  </si>
+  <si>
+    <t>2019-12-13</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>Тайга</t>
+  </si>
+  <si>
+    <t>Дина</t>
+  </si>
+  <si>
+    <t>Менеджмент в СМИ</t>
+  </si>
+  <si>
+    <t>dtna@edu.ru</t>
+  </si>
+  <si>
+    <t>+7994</t>
+  </si>
+  <si>
+    <t>1997-12-10</t>
+  </si>
+  <si>
+    <t>dina_mailer</t>
+  </si>
+  <si>
+    <t>7764902Zzz</t>
+  </si>
+  <si>
+    <t>2019-12-14</t>
+  </si>
+  <si>
+    <t>Мува</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>Игоревна</t>
+  </si>
+  <si>
+    <t>Программа двух дипломов "Международные отношения"</t>
+  </si>
+  <si>
+    <t>vima@edu.ru</t>
+  </si>
+  <si>
+    <t>+7793</t>
+  </si>
+  <si>
+    <t>1999-01-17</t>
+  </si>
+  <si>
+    <t>muravyeva.valeriya</t>
+  </si>
+  <si>
+    <t>Zaya170199</t>
+  </si>
+  <si>
+    <t>Ава</t>
+  </si>
+  <si>
+    <t>Арина</t>
+  </si>
+  <si>
+    <t>Логистика и управление цепями поставок</t>
+  </si>
+  <si>
+    <t>ava@edu.ru</t>
+  </si>
+  <si>
+    <t>+79141</t>
+  </si>
+  <si>
+    <t>2000-03-17</t>
+  </si>
+  <si>
+    <t>arinaalfyorova</t>
+  </si>
+  <si>
+    <t>iPhone69</t>
+  </si>
+  <si>
+    <t>2019-12-20</t>
+  </si>
+  <si>
+    <t>Ква</t>
+  </si>
+  <si>
+    <t>Александра</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t>Медиакоммуникации</t>
+  </si>
+  <si>
+    <t>a_5@edu.ru</t>
+  </si>
+  <si>
+    <t>+7(929)05</t>
+  </si>
+  <si>
+    <t>2000-03-14</t>
+  </si>
+  <si>
+    <t>aakomarova_5</t>
+  </si>
+  <si>
+    <t>Aa12345678</t>
+  </si>
+  <si>
+    <t>Сока</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Управление логистикой и цепями поставок в бизнесе</t>
+  </si>
+  <si>
+    <t>annas99@ya.ru</t>
+  </si>
+  <si>
+    <t>+78923</t>
+  </si>
+  <si>
+    <t>21.09.1999</t>
+  </si>
+  <si>
+    <t>AnyaGlob21</t>
+  </si>
+  <si>
+    <t>florA3716721</t>
+  </si>
+  <si>
+    <t>Одга</t>
+  </si>
+  <si>
+    <t>Даяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арсланговна </t>
+  </si>
+  <si>
+    <t>Право и государственное управление</t>
+  </si>
+  <si>
+    <t>odad@mail.ru</t>
+  </si>
+  <si>
+    <t>892583</t>
+  </si>
+  <si>
+    <t>1998-09-13</t>
+  </si>
+  <si>
+    <t>DayanaO</t>
+  </si>
+  <si>
+    <t>Lotos1998</t>
+  </si>
+  <si>
+    <t>Папуа</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Давидович</t>
+  </si>
+  <si>
+    <t>898@gmail.com</t>
+  </si>
+  <si>
+    <t>+7 (9185 - 77</t>
+  </si>
+  <si>
+    <t>1998-08-10</t>
+  </si>
+  <si>
+    <t>from__gvinea</t>
+  </si>
+  <si>
+    <t>Sp905486</t>
+  </si>
+  <si>
+    <t>Тнко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дарья </t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>dst@edu.ru</t>
+  </si>
+  <si>
+    <t>+7 925 30</t>
+  </si>
+  <si>
+    <t>1998-06-04</t>
+  </si>
+  <si>
+    <t>dstkachenko_1</t>
+  </si>
+  <si>
+    <t>24270Lfif</t>
+  </si>
+  <si>
+    <t>Шар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виолетта </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Витальевна </t>
+  </si>
+  <si>
+    <t>Мировая экономика</t>
+  </si>
+  <si>
+    <t>der@edu.ru</t>
+  </si>
+  <si>
+    <t>8977</t>
+  </si>
+  <si>
+    <t>1999-09-15</t>
+  </si>
+  <si>
+    <t>vvshander</t>
+  </si>
+  <si>
+    <t>Edu1711523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беченко </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валерия </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игоревна </t>
+  </si>
+  <si>
+    <t>lerao@mail.ru</t>
+  </si>
+  <si>
+    <t>+7984</t>
+  </si>
+  <si>
+    <t>1998-04-07</t>
+  </si>
+  <si>
+    <t>hollycakee</t>
+  </si>
+  <si>
+    <t>Lakroberd7498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шайхов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тимур </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маратович </t>
+  </si>
+  <si>
+    <t>Международные отношения</t>
+  </si>
+  <si>
+    <t>yh77@gmail.com</t>
+  </si>
+  <si>
+    <t>+791678</t>
+  </si>
+  <si>
+    <t>1997-04-13</t>
+  </si>
+  <si>
+    <t>Timshay</t>
+  </si>
+  <si>
+    <t>Greedisgood1</t>
+  </si>
+  <si>
+    <t>Кузь</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Философия</t>
+  </si>
+  <si>
+    <t>m-ku@yandex.ru</t>
+  </si>
+  <si>
+    <t>+7(15) 11 85</t>
+  </si>
+  <si>
+    <t>1997-01-12</t>
+  </si>
+  <si>
+    <t>mkuzminova</t>
+  </si>
+  <si>
+    <t>Masha1997!</t>
+  </si>
+  <si>
+    <t>Анов</t>
+  </si>
+  <si>
+    <t>Артем</t>
+  </si>
+  <si>
+    <t>Геннадьевич</t>
+  </si>
+  <si>
+    <t>Психология</t>
+  </si>
+  <si>
+    <t>ag@edu.ru</t>
+  </si>
+  <si>
+    <t>898448</t>
+  </si>
+  <si>
+    <t>1995-05-17</t>
+  </si>
+  <si>
+    <t>agantonov</t>
+  </si>
+  <si>
+    <t>4815162342LostIt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Байв </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дмитрий </t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Реклама и связи с общественностью</t>
+  </si>
+  <si>
+    <t>dyub@edu.ru</t>
+  </si>
+  <si>
+    <t>+79015</t>
+  </si>
+  <si>
+    <t>1998-10-29</t>
+  </si>
+  <si>
+    <t>dbaybikov</t>
+  </si>
+  <si>
+    <t>Bd291098</t>
+  </si>
+  <si>
+    <t>Зотов</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>dnz@edu.ru</t>
+  </si>
+  <si>
+    <t>89221</t>
+  </si>
+  <si>
+    <t>1998-09-09</t>
+  </si>
+  <si>
+    <t>Dima98.9</t>
+  </si>
+  <si>
+    <t>Чова</t>
+  </si>
+  <si>
+    <t>Агата</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>ag_22@mail.ru</t>
+  </si>
+  <si>
+    <t>+79831</t>
+  </si>
+  <si>
+    <t>1998-12-22</t>
+  </si>
+  <si>
+    <t>agathacherr</t>
+  </si>
+  <si>
+    <t>O9puzz234</t>
+  </si>
+  <si>
+    <t>Чера</t>
+  </si>
+  <si>
+    <t>avova_1@edu.ru</t>
+  </si>
+  <si>
+    <t>+790831</t>
+  </si>
+  <si>
+    <t>Зева</t>
+  </si>
+  <si>
+    <t>Белла</t>
+  </si>
+  <si>
+    <t>Артуровна</t>
+  </si>
+  <si>
+    <t>Журналистика</t>
+  </si>
+  <si>
+    <t>bazva@edu.ru</t>
+  </si>
+  <si>
+    <t>+796848</t>
+  </si>
+  <si>
+    <t>1998-06-13</t>
+  </si>
+  <si>
+    <t>bellazokaeva</t>
+  </si>
+  <si>
+    <t>Avekazo98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оар </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шенне </t>
+  </si>
+  <si>
+    <t>Кушкаш-ооловна</t>
+  </si>
+  <si>
+    <t>Управление в социальной сфере</t>
+  </si>
+  <si>
+    <t>shar@edu.ru</t>
+  </si>
+  <si>
+    <t>899977</t>
+  </si>
+  <si>
+    <t>1994-07-01</t>
+  </si>
+  <si>
+    <t>shkondar</t>
+  </si>
+  <si>
+    <t>Shen0107</t>
+  </si>
+  <si>
+    <t>Же</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Валерьевич</t>
+  </si>
+  <si>
+    <t>Прикладная социальная психология</t>
+  </si>
+  <si>
+    <t>le@gmail.com</t>
+  </si>
+  <si>
+    <t>+791358</t>
+  </si>
+  <si>
+    <t>1990-03-06</t>
+  </si>
+  <si>
+    <t>lorde_wander</t>
+  </si>
+  <si>
+    <t>Rhtcnjyjcws297</t>
+  </si>
+  <si>
+    <t>Ева</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>peva@edu.ru</t>
+  </si>
+  <si>
+    <t>891045</t>
+  </si>
+  <si>
+    <t>14.05.1997</t>
+  </si>
+  <si>
+    <t>Polina1405</t>
+  </si>
+  <si>
+    <t>Polinaevl1</t>
+  </si>
+  <si>
+    <t>Соёнэ</t>
+  </si>
+  <si>
+    <t>Анужин</t>
+  </si>
+  <si>
+    <t>Менеджмент</t>
+  </si>
+  <si>
+    <t>asone@edu.ru</t>
+  </si>
+  <si>
+    <t>+79760</t>
+  </si>
+  <si>
+    <t>1999-05-26</t>
+  </si>
+  <si>
+    <t>Givaa</t>
+  </si>
+  <si>
+    <t>Undrakh96</t>
+  </si>
+  <si>
+    <t>Куза</t>
+  </si>
+  <si>
+    <t>Викторовна</t>
+  </si>
+  <si>
+    <t>av_8@edu.ru</t>
+  </si>
+  <si>
+    <t>+7 96 93</t>
+  </si>
+  <si>
+    <t>1997-04-25</t>
+  </si>
+  <si>
+    <t>alexsv25</t>
+  </si>
+  <si>
+    <t>gaga25daqLove</t>
+  </si>
+  <si>
+    <t>Асн</t>
+  </si>
+  <si>
+    <t>Михайлович</t>
+  </si>
+  <si>
+    <t>Демография</t>
+  </si>
+  <si>
+    <t>elin@mail.ru</t>
+  </si>
+  <si>
+    <t>+73734</t>
+  </si>
+  <si>
+    <t>1997-12-22</t>
+  </si>
+  <si>
+    <t>guajeel</t>
+  </si>
+  <si>
+    <t>DV7Guaje7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неов </t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>nvge@gmail.com</t>
+  </si>
+  <si>
+    <t>+79751</t>
+  </si>
+  <si>
+    <t>1997-11-24</t>
+  </si>
+  <si>
+    <t>mortesterben</t>
+  </si>
+  <si>
+    <t>Estinmediaverum7797!</t>
+  </si>
+  <si>
+    <t>2019-12-21</t>
+  </si>
+  <si>
+    <t>Доршинная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вячеславовна </t>
+  </si>
+  <si>
+    <t>Когнитивные науки и технологии: от нейрона к познанию</t>
+  </si>
+  <si>
+    <t>doll@mail.ru</t>
+  </si>
+  <si>
+    <t>7 952 94</t>
+  </si>
+  <si>
+    <t>1996-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksandra </t>
+  </si>
+  <si>
+    <t>gingeRBrrad191005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ор </t>
+  </si>
+  <si>
+    <t>Шенне</t>
+  </si>
+  <si>
+    <t>2017@mail.ru</t>
+  </si>
+  <si>
+    <t>+79717</t>
+  </si>
+  <si>
+    <t>Shenne0107</t>
+  </si>
+  <si>
+    <t>Наин</t>
+  </si>
+  <si>
+    <t>Инсаф</t>
+  </si>
+  <si>
+    <t>Ильгизарович</t>
+  </si>
+  <si>
+    <t>inllin@gmail.com</t>
+  </si>
+  <si>
+    <t>8997</t>
+  </si>
+  <si>
+    <t>1998-10-17</t>
+  </si>
+  <si>
+    <t>insaf</t>
+  </si>
+  <si>
+    <t>Kirpich2018</t>
+  </si>
+  <si>
+    <t>Чея</t>
+  </si>
+  <si>
+    <t>Станиславовна</t>
+  </si>
+  <si>
+    <t>Востоковедение</t>
+  </si>
+  <si>
+    <t>osya@edu.ru</t>
+  </si>
+  <si>
+    <t>+7950</t>
+  </si>
+  <si>
+    <t>1996-07-16</t>
+  </si>
+  <si>
+    <t>olesya1696</t>
+  </si>
+  <si>
+    <t>7531910Stasya</t>
+  </si>
+  <si>
+    <t>Шава</t>
+  </si>
+  <si>
+    <t>Луиза</t>
+  </si>
+  <si>
+    <t>Наримановна</t>
+  </si>
+  <si>
+    <t>lnshva@edu.u</t>
+  </si>
+  <si>
+    <t>+7960</t>
+  </si>
+  <si>
+    <t>1998-06-09</t>
+  </si>
+  <si>
+    <t>lulushaix</t>
+  </si>
+  <si>
+    <t>Lublusvousemiu13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кош </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Георгий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Константинович </t>
+  </si>
+  <si>
+    <t>kohg@gmail.com</t>
+  </si>
+  <si>
+    <t>89107</t>
+  </si>
+  <si>
+    <t>1998-01-27</t>
+  </si>
+  <si>
+    <t>foolosopherstone</t>
+  </si>
+  <si>
+    <t>Dx6060857</t>
+  </si>
+  <si>
+    <t>Чапа</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Валерьевна</t>
+  </si>
+  <si>
+    <t>Государственное и муниципальное управление</t>
+  </si>
+  <si>
+    <t>avcha@edu.ru</t>
+  </si>
+  <si>
+    <t>+7()489 31</t>
+  </si>
+  <si>
+    <t>1998-10-27</t>
+  </si>
+  <si>
+    <t>avchaplygina</t>
+  </si>
+  <si>
+    <t>Volunteer2020</t>
+  </si>
+  <si>
+    <t>Енова</t>
+  </si>
+  <si>
+    <t>emeva_p@mail.ru</t>
+  </si>
+  <si>
+    <t>+7(917)536</t>
+  </si>
+  <si>
+    <t>10.09.1998</t>
+  </si>
+  <si>
+    <t>emelyanova_p</t>
+  </si>
+  <si>
+    <t>Polina10091998</t>
+  </si>
+  <si>
+    <t>Шер</t>
+  </si>
+  <si>
+    <t>Алина</t>
+  </si>
+  <si>
+    <t>Педагогическое образование</t>
+  </si>
+  <si>
+    <t>alya@mail.ru</t>
+  </si>
+  <si>
+    <t>+7(9)6606</t>
+  </si>
+  <si>
+    <t>1997-03-30</t>
+  </si>
+  <si>
+    <t>alya.sherina</t>
+  </si>
+  <si>
+    <t>N8cZ41!9L</t>
+  </si>
+  <si>
+    <t>Гоф</t>
+  </si>
+  <si>
+    <t>Нина</t>
+  </si>
+  <si>
+    <t>Управление бизнесом</t>
+  </si>
+  <si>
+    <t>ninana@mail.ru</t>
+  </si>
+  <si>
+    <t>+79175</t>
+  </si>
+  <si>
+    <t>1998-04-08</t>
+  </si>
+  <si>
+    <t>Gfninaa</t>
+  </si>
+  <si>
+    <t>Nina6564001</t>
+  </si>
+  <si>
+    <t>2019-12-22</t>
+  </si>
+  <si>
+    <t>Рова</t>
+  </si>
+  <si>
+    <t>Глебовна</t>
+  </si>
+  <si>
+    <t>vgrva@edu.ru</t>
+  </si>
+  <si>
+    <t>+7(912)95</t>
+  </si>
+  <si>
+    <t>22.07.1998</t>
+  </si>
+  <si>
+    <t>lera_pinky</t>
+  </si>
+  <si>
+    <t>Pinky220798</t>
+  </si>
+  <si>
+    <t>Края</t>
+  </si>
+  <si>
+    <t>Яновна</t>
+  </si>
+  <si>
+    <t>kras8@gmail.com</t>
+  </si>
+  <si>
+    <t>+79720</t>
+  </si>
+  <si>
+    <t>1998-05-26</t>
+  </si>
+  <si>
+    <t>asmyrria</t>
+  </si>
+  <si>
+    <t>Ghghgh33</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>Э</t>
+  </si>
+  <si>
+    <t>Карл Иман Оливье</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Международные отношения: европейские и азиатские исследования</t>
+  </si>
+  <si>
+    <t>ceue@edu.ru</t>
+  </si>
+  <si>
+    <t>+79066</t>
+  </si>
+  <si>
+    <t>1986-02-08</t>
+  </si>
+  <si>
+    <t>carletchue</t>
+  </si>
+  <si>
+    <t>08021986Kl@</t>
+  </si>
+  <si>
+    <t>Киса</t>
+  </si>
+  <si>
+    <t>agva_1@edu.ru</t>
+  </si>
+  <si>
+    <t>89052</t>
+  </si>
+  <si>
+    <t>1999-04-25</t>
+  </si>
+  <si>
+    <t>agkiseleva</t>
+  </si>
+  <si>
+    <t>Gleb09032014</t>
+  </si>
+  <si>
+    <t>Денисовна</t>
+  </si>
+  <si>
+    <t>lidova@yandex.ru</t>
+  </si>
+  <si>
+    <t>+79171</t>
+  </si>
+  <si>
+    <t>1998-12-13</t>
+  </si>
+  <si>
+    <t>Lidia_komolova</t>
+  </si>
+  <si>
+    <t>Lidia123456789</t>
+  </si>
+  <si>
+    <t>Молова</t>
+  </si>
+  <si>
+    <t>Алёна</t>
+  </si>
+  <si>
+    <t>adva@edu.ru</t>
+  </si>
+  <si>
+    <t>+7970</t>
+  </si>
+  <si>
+    <t>1998-06-05</t>
+  </si>
+  <si>
+    <t>admasolova@edu.hse</t>
+  </si>
+  <si>
+    <t>myname1998ADM</t>
+  </si>
+  <si>
+    <t>Кур</t>
+  </si>
+  <si>
+    <t>Карина</t>
+  </si>
+  <si>
+    <t>Аскаровна</t>
+  </si>
+  <si>
+    <t>Суперкомпьютерное моделирование в науке и инженерии</t>
+  </si>
+  <si>
+    <t>kakua@edu.ru</t>
+  </si>
+  <si>
+    <t>897794</t>
+  </si>
+  <si>
+    <t>1996-03-24</t>
+  </si>
+  <si>
+    <t>kakurmanova</t>
+  </si>
+  <si>
+    <t>Hsesupmod20</t>
+  </si>
+  <si>
+    <t>2019-12-24</t>
+  </si>
+  <si>
+    <t>Стов</t>
+  </si>
+  <si>
+    <t>Станислав</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>sov@edu.ru</t>
+  </si>
+  <si>
+    <t>+792209</t>
+  </si>
+  <si>
+    <t>1998-05-01</t>
   </si>
   <si>
     <t>333</t>
   </si>
   <si>
-    <t>Кудлай</t>
-  </si>
-  <si>
-    <t>Полина</t>
-  </si>
-  <si>
-    <t>Александровна</t>
-  </si>
-  <si>
-    <t>Иноватика</t>
-  </si>
-  <si>
-    <t>pol@ina.com</t>
-  </si>
-  <si>
-    <t>789654</t>
-  </si>
-  <si>
-    <t>15.11.1999</t>
-  </si>
-  <si>
-    <t>pts</t>
-  </si>
-  <si>
-    <t>2019-03-17</t>
-  </si>
-  <si>
-    <t>Мрак</t>
-  </si>
-  <si>
-    <t>Семен</t>
-  </si>
-  <si>
-    <t>Атилович</t>
-  </si>
-  <si>
-    <t>ФКН</t>
-  </si>
-  <si>
-    <t>pantu@bu.su</t>
-  </si>
-  <si>
-    <t>5465245</t>
-  </si>
-  <si>
-    <t>23.12.1901</t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>2019-04-28</t>
-  </si>
-  <si>
-    <t>2019-08-03 00:00:00</t>
+    <t>Вук</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Вадимович</t>
+  </si>
+  <si>
+    <t>Иностранные языки и межкультурная коммуникация</t>
+  </si>
+  <si>
+    <t>mv@yandex.ru</t>
+  </si>
+  <si>
+    <t>+798950</t>
+  </si>
+  <si>
+    <t>1997-03-09</t>
+  </si>
+  <si>
+    <t>tanker227</t>
+  </si>
+  <si>
+    <t>Spytan227</t>
+  </si>
+  <si>
+    <t>2019-12-25</t>
+  </si>
+  <si>
+    <t>2020-07-24 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -462,7 +1605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +1654,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -522,95 +1665,1993 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
+      <c r="M3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>250</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>255</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>272</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>287</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>291</v>
+      </c>
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>295</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>336</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>351</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>353</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>366</v>
+      </c>
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" t="s">
+        <v>246</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>369</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>389</v>
+      </c>
+      <c r="B30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>428</v>
+      </c>
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>433</v>
+      </c>
+      <c r="B32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>442</v>
+      </c>
+      <c r="B33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>449</v>
+      </c>
+      <c r="B34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>289</v>
+      </c>
+      <c r="H34" t="s">
+        <v>290</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>451</v>
+      </c>
+      <c r="B35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>38</v>
+      <c r="D35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>297</v>
+      </c>
+      <c r="H35" t="s">
+        <v>298</v>
+      </c>
+      <c r="I35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>454</v>
+      </c>
+      <c r="B36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" t="s">
+        <v>303</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>305</v>
+      </c>
+      <c r="H36" t="s">
+        <v>306</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>455</v>
+      </c>
+      <c r="B37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" t="s">
+        <v>310</v>
+      </c>
+      <c r="D37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>313</v>
+      </c>
+      <c r="H37" t="s">
+        <v>314</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>458</v>
+      </c>
+      <c r="B38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" t="s">
+        <v>323</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>459</v>
+      </c>
+      <c r="B39" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" t="s">
+        <v>319</v>
+      </c>
+      <c r="E39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>460</v>
+      </c>
+      <c r="B40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
+        <v>333</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>334</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" t="s">
+        <v>337</v>
+      </c>
+      <c r="I40" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>477</v>
+      </c>
+      <c r="B41" t="s">
+        <v>340</v>
+      </c>
+      <c r="C41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
+        <v>344</v>
+      </c>
+      <c r="H41" t="s">
+        <v>345</v>
+      </c>
+      <c r="I41" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>479</v>
+      </c>
+      <c r="B42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" t="s">
+        <v>352</v>
+      </c>
+      <c r="H42" t="s">
+        <v>353</v>
+      </c>
+      <c r="I42" t="s">
+        <v>354</v>
+      </c>
+      <c r="J42" t="s">
+        <v>355</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>495</v>
+      </c>
+      <c r="B43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G43" t="s">
+        <v>359</v>
+      </c>
+      <c r="H43" t="s">
+        <v>360</v>
+      </c>
+      <c r="I43" t="s">
+        <v>361</v>
+      </c>
+      <c r="J43" t="s">
+        <v>362</v>
+      </c>
+      <c r="K43" t="s">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>496</v>
+      </c>
+      <c r="B44" t="s">
+        <v>364</v>
+      </c>
+      <c r="C44" t="s">
+        <v>365</v>
+      </c>
+      <c r="D44" t="s">
+        <v>366</v>
+      </c>
+      <c r="E44" t="s">
+        <v>367</v>
+      </c>
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" t="s">
+        <v>369</v>
+      </c>
+      <c r="H44" t="s">
+        <v>370</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>499</v>
+      </c>
+      <c r="B45" t="s">
+        <v>373</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>350</v>
+      </c>
+      <c r="E45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" t="s">
+        <v>375</v>
+      </c>
+      <c r="H45" t="s">
+        <v>376</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" t="s">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>500</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>381</v>
+      </c>
+      <c r="H46" t="s">
+        <v>382</v>
+      </c>
+      <c r="I46" t="s">
+        <v>383</v>
+      </c>
+      <c r="J46" t="s">
+        <v>384</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>504</v>
+      </c>
+      <c r="B47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" t="s">
+        <v>379</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>388</v>
+      </c>
+      <c r="H47" t="s">
+        <v>389</v>
+      </c>
+      <c r="I47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" t="s">
+        <v>363</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>521</v>
+      </c>
+      <c r="B48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C48" t="s">
+        <v>393</v>
+      </c>
+      <c r="D48" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" t="s">
+        <v>395</v>
+      </c>
+      <c r="F48" t="s">
+        <v>396</v>
+      </c>
+      <c r="G48" t="s">
+        <v>397</v>
+      </c>
+      <c r="H48" t="s">
+        <v>398</v>
+      </c>
+      <c r="I48" t="s">
+        <v>399</v>
+      </c>
+      <c r="J48" t="s">
+        <v>400</v>
+      </c>
+      <c r="K48" t="s">
+        <v>401</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>527</v>
+      </c>
+      <c r="B49" t="s">
+        <v>402</v>
+      </c>
+      <c r="C49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D49" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>406</v>
+      </c>
+      <c r="H49" t="s">
+        <v>407</v>
+      </c>
+      <c r="I49" t="s">
+        <v>408</v>
+      </c>
+      <c r="J49" t="s">
+        <v>408</v>
+      </c>
+      <c r="K49" t="s">
+        <v>363</v>
+      </c>
+      <c r="L49" t="s">
+        <v>67</v>
+      </c>
+      <c r="M49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>530</v>
+      </c>
+      <c r="B50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" t="s">
+        <v>410</v>
+      </c>
+      <c r="D50" t="s">
+        <v>411</v>
+      </c>
+      <c r="E50" t="s">
+        <v>412</v>
+      </c>
+      <c r="F50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G50" t="s">
+        <v>414</v>
+      </c>
+      <c r="H50" t="s">
+        <v>415</v>
+      </c>
+      <c r="I50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J50" t="s">
+        <v>417</v>
+      </c>
+      <c r="K50" t="s">
+        <v>418</v>
+      </c>
+      <c r="L50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
